--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975584D7-A6ED-DF42-A79B-47167BD51706}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5977654-AF66-224A-AC66-C16873BE9850}"/>
   <bookViews>
-    <workbookView xWindow="11020" yWindow="1020" windowWidth="20040" windowHeight="13180" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="10200" yWindow="1020" windowWidth="20040" windowHeight="13180" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
-    <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
+    <sheet name="IMG_2024_03_19_12_01_03_313" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -352,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -380,12 +380,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -545,94 +539,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -987,684 +975,684 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="174" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="174" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="11.1640625" style="7"/>
-    <col min="6" max="6" width="11.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="11.1640625" style="7"/>
+    <col min="1" max="5" width="11.1640625" style="3"/>
+    <col min="6" max="6" width="11.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="11.1640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="J1" s="27"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="2" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="6" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="11" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8">
         <v>1921</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>150</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>18150</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>1405</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="15">
         <v>16745</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="16" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="3">
         <v>19</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+      <c r="A5" s="7">
         <v>151</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>4840</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>4840</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="N5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="16" t="s">
+      <c r="L5" s="9"/>
+      <c r="N5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="3">
         <v>189</v>
       </c>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="14"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="16" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="N6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="3">
         <v>199</v>
       </c>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="7">
         <v>152</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="10">
         <v>7122</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>594</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="15">
         <v>6528</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="7" t="s">
+      <c r="L7" s="9"/>
+      <c r="N7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="7">
         <v>153</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>2250</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>526</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>1723</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="7" t="s">
+      <c r="L8" s="9"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="N9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>321</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="7" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
+      <c r="N10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="7">
         <v>154</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="3">
         <v>150723</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="3">
         <v>5369</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>145354</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="7" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="16" t="s">
+      <c r="N13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="8">
         <v>289</v>
       </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="7">
         <v>155</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="3">
         <v>2465</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="3">
         <v>2465</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="7" t="s">
+      <c r="L14" s="9"/>
+      <c r="N14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="13"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="7">
         <v>156</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="14"/>
+      <c r="G15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="3">
         <v>2485</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="3">
         <v>2485</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="16" t="s">
+      <c r="L15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="N16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="N16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="7">
         <v>157</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="21" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="3">
         <v>14245</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="3">
         <v>1326</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="8">
         <v>12919</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="16" t="s">
+      <c r="L17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="20">
+      <c r="S17" s="15">
         <v>298</v>
       </c>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="14"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="N19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
+      <c r="B19" s="8"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5977654-AF66-224A-AC66-C16873BE9850}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90BA6F9-2C7A-354F-9F2C-67CCD9A57A06}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="1020" windowWidth="20040" windowHeight="13180" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_12_01_03_313" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Nom.</t>
   </si>
@@ -315,18 +315,6 @@
     <t>Wauthier-Braine</t>
   </si>
   <si>
-    <t>Arrété le vingt cinq juin 1921</t>
-  </si>
-  <si>
-    <t>servais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrété le vingt quatre juin 1921 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrété le vingt sept juin 1921 </t>
-  </si>
-  <si>
     <t>Vanpée</t>
   </si>
   <si>
@@ -346,6 +334,18 @@
   </si>
   <si>
     <t>Vanpée Ernest &amp; autres</t>
+  </si>
+  <si>
+    <t>Arrété le vingt cinq juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrété le vingt quatre juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrété le vingt sept juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -975,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="174" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1049,9 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="6" t="s">
@@ -1176,7 +1178,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I5" s="3">
         <v>4840</v>
@@ -1226,7 +1228,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>34</v>
@@ -1269,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>35</v>
@@ -1282,7 +1284,7 @@
         <v>44</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I8" s="3">
         <v>2250</v>
@@ -1304,14 +1306,11 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1362,14 +1361,11 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="9"/>
@@ -1387,10 +1383,9 @@
     <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="14"/>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
       <c r="K12" s="8"/>
@@ -1462,7 +1457,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>54</v>
@@ -1499,7 +1494,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>52</v>
@@ -1512,7 +1507,7 @@
         <v>57</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3">
         <v>2485</v>
@@ -1531,15 +1526,12 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="14" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="9"/>

--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90BA6F9-2C7A-354F-9F2C-67CCD9A57A06}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3936BD32-FE7D-8642-B64C-DF9D09321C1A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <author>tc={E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -50,7 +50,7 @@
     Actif-passif=restant</t>
       </text>
     </comment>
-    <comment ref="K8" authorId="1" shapeId="0" xr:uid="{E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}">
+    <comment ref="J8" authorId="1" shapeId="0" xr:uid="{E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
   <si>
     <t>Nom.</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>Arrété le vingt sept juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -539,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -599,9 +596,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -962,10 +956,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+  <threadedComment ref="J2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
     <text>Actif-passif=restant</text>
   </threadedComment>
-  <threadedComment ref="K8" dT="2024-06-21T08:08:48.26" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}">
+  <threadedComment ref="J8" dT="2024-06-21T08:08:48.26" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{E70FDE5B-7AE1-6447-B82A-6D9FB4C2603D}">
     <text>Should be 1724 but written 1723</text>
   </threadedComment>
 </ThreadedComments>
@@ -973,73 +967,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="11.1640625" style="3"/>
-    <col min="6" max="6" width="11.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="11.1640625" style="3"/>
+    <col min="6" max="6" width="19.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="M1" s="23"/>
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="24"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1049,69 +1041,65 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="6" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="6" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="S2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>1921</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="9"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>150</v>
       </c>
@@ -1127,37 +1115,36 @@
       <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="H4" s="3">
+        <v>18150</v>
+      </c>
       <c r="I4" s="3">
-        <v>18150</v>
-      </c>
-      <c r="J4" s="3">
         <v>1405</v>
       </c>
-      <c r="K4" s="15">
+      <c r="J4" s="15">
         <v>16745</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="11" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="3">
+      <c r="R4" s="3">
         <v>19</v>
       </c>
+      <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>151</v>
       </c>
@@ -1173,54 +1160,52 @@
       <c r="E5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>4840</v>
       </c>
-      <c r="K5" s="8">
+      <c r="J5" s="8">
         <v>4840</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="N5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="11" t="s">
+      <c r="K5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="3">
+      <c r="R5" s="3">
         <v>189</v>
       </c>
+      <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="N6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="11" t="s">
+      <c r="G6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="3">
+      <c r="R6" s="3">
         <v>199</v>
       </c>
+      <c r="S6" s="9"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>152</v>
       </c>
@@ -1236,34 +1221,33 @@
       <c r="E7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="10">
+      <c r="H7" s="10">
         <v>7122</v>
       </c>
-      <c r="J7" s="3">
+      <c r="I7" s="3">
         <v>594</v>
       </c>
-      <c r="K7" s="15">
+      <c r="J7" s="15">
         <v>6528</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="N7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="3" t="s">
+      <c r="K7" s="9"/>
+      <c r="M7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>153</v>
       </c>
@@ -1279,52 +1263,51 @@
       <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="H8" s="3">
+        <v>2250</v>
+      </c>
       <c r="I8" s="3">
-        <v>2250</v>
-      </c>
-      <c r="J8" s="3">
         <v>526</v>
       </c>
-      <c r="K8" s="8">
+      <c r="J8" s="8">
         <v>1723</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="N8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="3" t="s">
+      <c r="K8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="F9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>81</v>
       </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1340,65 +1323,64 @@
       <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>321</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="3" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="F11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="N11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="8"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="N12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="8"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>154</v>
       </c>
@@ -1414,39 +1396,38 @@
       <c r="E13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="H13" s="3">
+        <v>150723</v>
+      </c>
       <c r="I13" s="3">
-        <v>150723</v>
-      </c>
-      <c r="J13" s="3">
         <v>5369</v>
       </c>
-      <c r="K13" s="8">
+      <c r="J13" s="8">
         <v>145354</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="3" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="11" t="s">
+      <c r="M13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="8">
+      <c r="R13" s="8">
         <v>289</v>
       </c>
+      <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>155</v>
       </c>
@@ -1462,31 +1443,30 @@
       <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
         <v>2465</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3">
         <v>2465</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="N14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="3" t="s">
+      <c r="K14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>156</v>
       </c>
@@ -1502,52 +1482,51 @@
       <c r="E15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
         <v>2485</v>
       </c>
-      <c r="K15" s="3">
+      <c r="J15" s="3">
         <v>2485</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="N15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="11" t="s">
+      <c r="K15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="S15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
+      <c r="C16" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="E16" s="18"/>
-      <c r="F16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:21" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>157</v>
       </c>
@@ -1563,101 +1542,97 @@
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="H17" s="3">
+        <v>14245</v>
+      </c>
       <c r="I17" s="3">
-        <v>14245</v>
-      </c>
-      <c r="J17" s="3">
         <v>1326</v>
       </c>
-      <c r="K17" s="8">
+      <c r="J17" s="8">
         <v>12919</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="11" t="s">
+      <c r="K17" s="9"/>
+      <c r="M17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="15">
+      <c r="R17" s="15">
         <v>298</v>
       </c>
+      <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="9"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="M19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="4"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3936BD32-FE7D-8642-B64C-DF9D09321C1A}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887561C2-AD65-7F4F-AEAC-CB51CB589E78}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>Nom.</t>
   </si>
@@ -194,9 +194,6 @@
     <t>8 mars 1919</t>
   </si>
   <si>
-    <t>29 décembre 1920</t>
-  </si>
-  <si>
     <t>24 janvier 1920</t>
   </si>
   <si>
@@ -230,22 +227,91 @@
     <t>Braine Le Château</t>
   </si>
   <si>
-    <t>28 décembre 1921</t>
-  </si>
-  <si>
     <t>31 janvier 1920</t>
   </si>
   <si>
-    <t>6 septembre 1920</t>
-  </si>
-  <si>
-    <t>Greis Aurelie &amp; autres</t>
-  </si>
-  <si>
     <t>Huet Jules &amp; Léon</t>
   </si>
   <si>
     <t>Vandromme Juliette</t>
+  </si>
+  <si>
+    <t>236/1920</t>
+  </si>
+  <si>
+    <t>16 mars 1922</t>
+  </si>
+  <si>
+    <t>4 octobre 1921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 - </t>
+  </si>
+  <si>
+    <t>9 janvier 1922</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Clabecq</t>
+  </si>
+  <si>
+    <t>Wauthier-Braine</t>
+  </si>
+  <si>
+    <t>Vanpée</t>
+  </si>
+  <si>
+    <t>Delabij</t>
+  </si>
+  <si>
+    <t>Scolas</t>
+  </si>
+  <si>
+    <t>Scolas Jules Jh &amp; autres</t>
+  </si>
+  <si>
+    <t>Vanpée Ernest &amp; autres</t>
+  </si>
+  <si>
+    <t>Arrété le vingt cinq juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrété le vingt quatre juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrété le vingt sept juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Jean Bte</t>
+  </si>
+  <si>
+    <t>Jacqmin Rosenè Marie</t>
+  </si>
+  <si>
+    <t>Grois Aurelie &amp; autres</t>
+  </si>
+  <si>
+    <t>29 Db 1920</t>
+  </si>
+  <si>
+    <t>6 7b 1920</t>
+  </si>
+  <si>
+    <t>28 Db 1921</t>
+  </si>
+  <si>
+    <t>8 avril 1920</t>
+  </si>
+  <si>
+    <t>341^3/1921</t>
+  </si>
+  <si>
+    <t>29 9b 1921</t>
+  </si>
+  <si>
+    <t>Defalque Adélaïde</t>
   </si>
   <si>
     <r>
@@ -256,7 +322,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>…..</t>
+      <t>Moride Hanricq</t>
     </r>
     <r>
       <rPr>
@@ -268,81 +334,6 @@
       </rPr>
       <t xml:space="preserve"> &amp; autres</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Defalque </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Aueluide</t>
-    </r>
-  </si>
-  <si>
-    <t>236/1920</t>
-  </si>
-  <si>
-    <t>341(3)/1921</t>
-  </si>
-  <si>
-    <t>16 mars 1922</t>
-  </si>
-  <si>
-    <t>4 octobre 1921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - </t>
-  </si>
-  <si>
-    <t>9 janvier 1922</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>9 décmebre 1921</t>
-  </si>
-  <si>
-    <t>Clabecq</t>
-  </si>
-  <si>
-    <t>Wauthier-Braine</t>
-  </si>
-  <si>
-    <t>Vanpée</t>
-  </si>
-  <si>
-    <t>Delabij</t>
-  </si>
-  <si>
-    <t>Scolas</t>
-  </si>
-  <si>
-    <t>Jean gte</t>
-  </si>
-  <si>
-    <t>Scolas Jules Jh &amp; autres</t>
-  </si>
-  <si>
-    <t>Jus.. Rosenè Marie</t>
-  </si>
-  <si>
-    <t>Vanpée Ernest &amp; autres</t>
-  </si>
-  <si>
-    <t>Arrété le vingt cinq juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrété le vingt quatre juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrété le vingt sept juin 1921 servais</t>
   </si>
 </sst>
 </file>
@@ -536,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -556,51 +547,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -969,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,46 +946,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="22" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="26"/>
       <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1030,8 +994,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1041,8 +1005,8 @@
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1067,7 +1031,7 @@
       <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="25"/>
+      <c r="P2" s="28"/>
       <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
@@ -1086,12 +1050,18 @@
       <c r="B3" s="8">
         <v>1921</v>
       </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="10"/>
       <c r="M3" s="8"/>
+      <c r="N3"/>
       <c r="O3" s="8"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="11"/>
@@ -1099,17 +1069,17 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="4" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>150</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1119,12 +1089,12 @@
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="3">
+        <v>75</v>
+      </c>
+      <c r="H4">
         <v>18150</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>1405</v>
       </c>
       <c r="J4" s="15">
@@ -1133,96 +1103,106 @@
       <c r="K4" s="9"/>
       <c r="L4" s="10"/>
       <c r="M4" s="8"/>
+      <c r="N4"/>
       <c r="O4" s="8"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="3">
+        <v>58</v>
+      </c>
+      <c r="R4">
         <v>19</v>
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>151</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="3">
+        <v>69</v>
+      </c>
+      <c r="H5">
         <v>4840</v>
       </c>
+      <c r="I5"/>
       <c r="J5" s="8">
         <v>4840</v>
       </c>
       <c r="K5" s="9"/>
+      <c r="L5"/>
       <c r="M5" s="8"/>
+      <c r="N5"/>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="R5" s="3">
+        <v>59</v>
+      </c>
+      <c r="R5">
         <v>189</v>
       </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
     </row>
-    <row r="6" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
+      <c r="C6"/>
+      <c r="D6"/>
       <c r="E6" s="13"/>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
+      <c r="H6"/>
+      <c r="I6"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
+      <c r="L6"/>
       <c r="M6" s="8"/>
+      <c r="N6"/>
       <c r="O6" s="8"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="3">
+        <v>60</v>
+      </c>
+      <c r="R6">
         <v>199</v>
       </c>
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
     </row>
-    <row r="7" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>152</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>28</v>
@@ -1230,76 +1210,86 @@
       <c r="H7" s="10">
         <v>7122</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7">
         <v>594</v>
       </c>
       <c r="J7" s="15">
         <v>6528</v>
       </c>
       <c r="K7" s="9"/>
+      <c r="L7"/>
       <c r="M7" s="8"/>
+      <c r="N7"/>
       <c r="O7" s="8"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" t="s">
         <v>29</v>
       </c>
       <c r="R7" s="8"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
     </row>
-    <row r="8" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>153</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8">
         <v>2250</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8">
         <v>526</v>
       </c>
       <c r="J8" s="8">
         <v>1723</v>
       </c>
       <c r="K8" s="9"/>
+      <c r="L8"/>
       <c r="M8" s="8"/>
+      <c r="N8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" t="s">
         <v>29</v>
       </c>
       <c r="R8" s="8"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
     </row>
-    <row r="9" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="14" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
+      <c r="H9"/>
+      <c r="I9"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
+      <c r="L9"/>
       <c r="M9" s="8"/>
+      <c r="N9"/>
       <c r="O9" s="8"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="11"/>
@@ -1307,35 +1297,39 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="G10" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="3">
+        <v>55</v>
+      </c>
+      <c r="H10">
         <v>321</v>
       </c>
+      <c r="I10"/>
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="3" t="s">
-        <v>63</v>
+      <c r="L10" t="s">
+        <v>57</v>
       </c>
       <c r="M10" s="8"/>
+      <c r="N10"/>
       <c r="O10" s="8"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="11"/>
@@ -1343,18 +1337,23 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
     </row>
-    <row r="11" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="14" t="s">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
       <c r="F11" s="16"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
+      <c r="I11"/>
       <c r="J11" s="8"/>
       <c r="K11" s="9"/>
+      <c r="L11"/>
       <c r="M11" s="8"/>
+      <c r="N11"/>
       <c r="O11" s="8"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="11"/>
@@ -1362,17 +1361,23 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
     </row>
-    <row r="12" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
+      <c r="H12"/>
+      <c r="I12"/>
       <c r="J12" s="8"/>
       <c r="K12" s="9"/>
+      <c r="L12"/>
       <c r="M12" s="8"/>
+      <c r="N12"/>
       <c r="O12" s="8"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="11"/>
@@ -1380,46 +1385,47 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>154</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="3">
+        <v>56</v>
+      </c>
+      <c r="H13">
         <v>150723</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13">
         <v>5369</v>
       </c>
       <c r="J13" s="8">
         <v>145354</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="3" t="s">
-        <v>64</v>
+      <c r="L13" t="s">
+        <v>80</v>
       </c>
       <c r="M13" s="8"/>
+      <c r="N13"/>
       <c r="O13" s="8"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="R13" s="8">
         <v>289</v>
@@ -1427,90 +1433,97 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
     </row>
-    <row r="14" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>155</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="3">
+        <v>83</v>
+      </c>
+      <c r="H14">
         <v>2465</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14"/>
+      <c r="J14">
         <v>2465</v>
       </c>
       <c r="K14" s="9"/>
+      <c r="L14"/>
       <c r="M14" s="8"/>
+      <c r="N14"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" t="s">
         <v>29</v>
       </c>
       <c r="R14" s="8"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>156</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>72</v>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="3">
+        <v>68</v>
+      </c>
+      <c r="H15">
         <v>2485</v>
       </c>
-      <c r="J15" s="3">
+      <c r="I15"/>
+      <c r="J15">
         <v>2485</v>
       </c>
       <c r="K15" s="9"/>
+      <c r="L15"/>
       <c r="M15" s="8"/>
+      <c r="N15"/>
       <c r="O15" s="8"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14" t="s">
-        <v>82</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D16"/>
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
       <c r="G16" s="9"/>
@@ -1518,7 +1531,9 @@
       <c r="I16" s="10"/>
       <c r="J16" s="8"/>
       <c r="K16" s="9"/>
+      <c r="L16"/>
       <c r="M16" s="8"/>
+      <c r="N16"/>
       <c r="O16" s="8"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="11"/>
@@ -1526,46 +1541,48 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" spans="1:20" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>157</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F17" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="3">
+        <v>76</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17">
         <v>14245</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17">
         <v>1326</v>
       </c>
       <c r="J17" s="8">
         <v>12919</v>
       </c>
       <c r="K17" s="9"/>
+      <c r="L17"/>
       <c r="M17" s="8"/>
+      <c r="N17"/>
       <c r="O17" s="8"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="11" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="R17" s="15">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
@@ -1573,11 +1590,18 @@
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
       <c r="F18" s="11"/>
       <c r="G18" s="9"/>
+      <c r="H18"/>
+      <c r="I18"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9"/>
+      <c r="L18"/>
       <c r="M18" s="8"/>
+      <c r="N18"/>
       <c r="O18" s="8"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="11"/>
@@ -1586,12 +1610,20 @@
       <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19"/>
       <c r="B19" s="8"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
+      <c r="H19"/>
+      <c r="I19"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9"/>
+      <c r="L19"/>
       <c r="M19" s="8"/>
+      <c r="N19"/>
       <c r="O19" s="8"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="11"/>
@@ -1601,25 +1633,25 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{887561C2-AD65-7F4F-AEAC-CB51CB589E78}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A36008-2EFC-7240-B598-5AFDA117FBD8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_12_01_03_313" sheetId="2" r:id="rId1"/>
@@ -322,7 +322,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Moride Hanricq</t>
+      <t>Flandre Hanricq</t>
     </r>
     <r>
       <rPr>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="363" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83A36008-2EFC-7240-B598-5AFDA117FBD8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{7E657A03-5AB9-4453-A21A-D0660834352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8B0A5A-13B7-8B47-8ED1-C1198605397B}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_12_01_03_313" sheetId="2" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>24 janvier 1920</t>
   </si>
   <si>
-    <t>Arrété le vingt six juin 1921 dimanche servais</t>
-  </si>
-  <si>
     <t>vingt sept</t>
   </si>
   <si>
@@ -273,15 +270,6 @@
   </si>
   <si>
     <t>Vanpée Ernest &amp; autres</t>
-  </si>
-  <si>
-    <t>Arrété le vingt cinq juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrété le vingt quatre juin 1921 servais</t>
-  </si>
-  <si>
-    <t>Arrété le vingt sept juin 1921 servais</t>
   </si>
   <si>
     <t>Jean Bte</t>
@@ -334,6 +322,18 @@
       </rPr>
       <t xml:space="preserve"> &amp; autres</t>
     </r>
+  </si>
+  <si>
+    <t>Arrêté le vingt quatre juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt cinq juin 1921 servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt six juin 1921 dimanche servais</t>
+  </si>
+  <si>
+    <t>Arrêté le vingt sept juin 1921 servais</t>
   </si>
 </sst>
 </file>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="363" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="256" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1089,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H4">
         <v>18150</v>
@@ -1107,7 +1107,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R4">
         <v>19</v>
@@ -1129,13 +1129,13 @@
         <v>33</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5">
         <v>4840</v>
@@ -1151,7 +1151,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R5">
         <v>189</v>
@@ -1177,7 +1177,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R6">
         <v>199</v>
@@ -1193,7 +1193,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1202,7 +1202,7 @@
         <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>28</v>
@@ -1237,19 +1237,19 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H8">
         <v>2250</v>
@@ -1277,7 +1277,7 @@
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="14" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -1314,10 +1314,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H10">
         <v>321</v>
@@ -1326,7 +1326,7 @@
       <c r="J10" s="8"/>
       <c r="K10" s="9"/>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10"/>
@@ -1341,7 +1341,7 @@
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="14" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
@@ -1365,7 +1365,7 @@
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
@@ -1390,22 +1390,22 @@
         <v>154</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13">
         <v>150723</v>
@@ -1418,14 +1418,14 @@
       </c>
       <c r="K13" s="9"/>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13"/>
       <c r="O13" s="8"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R13" s="8">
         <v>289</v>
@@ -1441,19 +1441,19 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="G14" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H14">
         <v>2465</v>
@@ -1483,19 +1483,19 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="H15">
         <v>2485</v>
@@ -1511,7 +1511,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
@@ -1521,7 +1521,7 @@
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="18"/>
@@ -1546,22 +1546,22 @@
         <v>157</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
-        <v>53</v>
-      </c>
       <c r="F17" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H17">
         <v>14245</v>
@@ -1579,7 +1579,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R17" s="15">
         <v>175</v>

--- a/data/transcriptions/transcription_ex6.xlsx
+++ b/data/transcriptions/transcription_ex6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julien\OneDrive\Documents\Github\img-analysis_seorin_project\data\transcriptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98BC4CB-78DF-4483-B7FD-7634E43142AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2485BB1B-C320-1B40-92D2-63E357D17EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_12_01_03_313" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Numéros de la consignation au sommier n'30</t>
-  </si>
-  <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
   </si>
   <si>
     <t>vingt quatre juin</t>
@@ -290,12 +281,21 @@
   <si>
     <t>189 199</t>
   </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +327,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -383,21 +390,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -473,134 +465,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,605 +886,605 @@
   </sheetPr>
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:20" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="G1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="36" t="s">
+      <c r="Q1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="43"/>
-      <c r="P1" s="38" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="T1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="42"/>
-      <c r="S1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="D2" s="37" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="I2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="7" t="s">
+      <c r="T2" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3">
+        <v>1921</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>150</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10">
-        <v>1921</v>
-      </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>150</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="E4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="H4" s="10">
+        <v>18150</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1405</v>
+      </c>
+      <c r="J4" s="15">
+        <v>16745</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="R4" s="10">
+        <v>19</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>151</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="17">
-        <v>18150</v>
-      </c>
-      <c r="I4" s="17">
-        <v>1405</v>
-      </c>
-      <c r="J4" s="22">
-        <v>16745</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="23" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R4" s="17">
-        <v>19</v>
-      </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-    </row>
-    <row r="5" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
-        <v>151</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="E5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="H5" s="10">
+        <v>4840</v>
+      </c>
+      <c r="J5" s="18">
+        <v>4840</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="M5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>152</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="17">
-        <v>4840</v>
-      </c>
-      <c r="J5" s="25">
-        <v>4840</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="M5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>152</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="20">
+        <v>7122</v>
+      </c>
+      <c r="I6" s="10">
+        <v>594</v>
+      </c>
+      <c r="J6" s="15">
+        <v>6528</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="M6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>153</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="27">
-        <v>7122</v>
-      </c>
-      <c r="I6" s="17">
-        <v>594</v>
-      </c>
-      <c r="J6" s="22">
-        <v>6528</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="M6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>153</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="10">
+        <v>2250</v>
+      </c>
+      <c r="I7" s="10">
+        <v>526</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1723</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="M7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="17">
-        <v>2250</v>
-      </c>
-      <c r="I7" s="17">
-        <v>526</v>
-      </c>
-      <c r="J7" s="25">
-        <v>1723</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="M7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="10">
+        <v>321</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="22"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>154</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="10">
+        <v>150723</v>
+      </c>
+      <c r="I12" s="10">
+        <v>5369</v>
+      </c>
+      <c r="J12" s="18">
+        <v>145354</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="18">
+        <v>289</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>155</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2465</v>
+      </c>
+      <c r="J13" s="10">
+        <v>2465</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+    </row>
+    <row r="14" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>156</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="M8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="17">
-        <v>321</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="29"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="30"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="M11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>154</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="17">
-        <v>150723</v>
-      </c>
-      <c r="I12" s="17">
-        <v>5369</v>
-      </c>
-      <c r="J12" s="25">
-        <v>145354</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="23" t="s">
+      <c r="F14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2485</v>
+      </c>
+      <c r="J14" s="10">
+        <v>2485</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>157</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="R12" s="25">
-        <v>289</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>155</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="17">
-        <v>2465</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2465</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="M13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" t="s">
-        <v>43</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>156</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="17">
-        <v>2485</v>
-      </c>
-      <c r="J14" s="17">
-        <v>2485</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="M14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
-      <c r="M15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>157</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="F16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="H16" s="10">
+        <v>14245</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1326</v>
+      </c>
+      <c r="J16" s="18">
+        <v>12919</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="17">
-        <v>14245</v>
-      </c>
-      <c r="I16" s="17">
-        <v>1326</v>
-      </c>
-      <c r="J16" s="25">
-        <v>12919</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="M16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="R16" s="22">
+      <c r="R16" s="15">
         <v>175</v>
       </c>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
